--- a/biology/Zoologie/Charaxes_petersi/Charaxes_petersi.xlsx
+++ b/biology/Zoologie/Charaxes_petersi/Charaxes_petersi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes petersi est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae, au genre Charaxes et au sous-groupe des espèces africaines éteocles.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes petersi a été nommé par Gurner Cunningham van Someren en 1969[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes petersi a été nommé par Gurner Cunningham van Someren en 1969.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes petersi est un papillon de taille moyenne: l'envergure du mâle peut atteindre entre 58 et 60 mm, celle de la femelle entre 66 et 70 mm. Le dessus est marron foncé presque noir avec des ailes antérieures très concaves et des ailes postérieures avec deux queues ornée d'une discrète ligne submarginale de points blancs. 
 Le dessous est argent avec des veines foncées et des taches et chevrons submarginaux marron.
@@ -572,12 +588,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Afrique, uniquement au Liberia, en Guinée, en Côte d'Ivoire et au Ghana.
+Sur les autres projets Wikimedia :
+Charaxes petersi, sur Wikimedia CommonsCharaxes petersi, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +628,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Afrique, uniquement au Liberia, en Guinée, en Côte d'Ivoire et au Ghana[1].
-Sur les autres projets Wikimedia :
-Charaxes petersi, sur Wikimedia CommonsCharaxes petersi, sur Wikispecies
-Biotope
-Il réside dans la forêt.
-Protection
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_petersi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_petersi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 ↑ a et b funet
 </t>
         </is>
